--- a/data_month/zb/工业/按行业分工业企业主要经济指标(2012-2017)/工业企业营业成本.xlsx
+++ b/data_month/zb/工业/按行业分工业企业主要经济指标(2012-2017)/工业企业营业成本.xlsx
@@ -2466,7 +2466,7 @@
         <v>11</v>
       </c>
       <c r="BD4" t="n">
-        <v>127.6</v>
+        <v>108.8</v>
       </c>
       <c r="BE4" t="n">
         <v>539.2</v>
@@ -2484,7 +2484,7 @@
         <v>13.2</v>
       </c>
       <c r="BJ4" t="n">
-        <v>242.3000000000002</v>
+        <v>119.1000000000006</v>
       </c>
       <c r="BK4" t="n">
         <v>1103.1</v>
@@ -2637,7 +2637,7 @@
         <v>4.7</v>
       </c>
       <c r="DI4" t="n">
-        <v>188.3999999999987</v>
+        <v>39.29999999999654</v>
       </c>
       <c r="DJ4" t="n">
         <v>16378.3</v>
@@ -2673,7 +2673,7 @@
         <v>23.4</v>
       </c>
       <c r="DU4" t="n">
-        <v>19.69999999999993</v>
+        <v>6.799999999999947</v>
       </c>
       <c r="DV4" t="n">
         <v>1705.6</v>
@@ -2815,7 +2815,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>181.199999999998</v>
+        <v>86.69999999999709</v>
       </c>
       <c r="C5" t="n">
         <v>12985.8</v>
@@ -2824,7 +2824,7 @@
         <v>11.4</v>
       </c>
       <c r="E5" t="n">
-        <v>89.60000000000036</v>
+        <v>4.700000000001857</v>
       </c>
       <c r="F5" t="n">
         <v>3042.2</v>
@@ -2842,7 +2842,7 @@
         <v>10.5</v>
       </c>
       <c r="K5" t="n">
-        <v>1.300000000000001</v>
+        <v>0.3000000000000027</v>
       </c>
       <c r="L5" t="n">
         <v>10.2</v>
@@ -2851,7 +2851,7 @@
         <v>43.7</v>
       </c>
       <c r="N5" t="n">
-        <v>587.5999999999985</v>
+        <v>141.1999999999971</v>
       </c>
       <c r="O5" t="n">
         <v>24326.6</v>
@@ -2860,7 +2860,7 @@
         <v>9.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>420.4000000000005</v>
+        <v>120.5999999999995</v>
       </c>
       <c r="R5" t="n">
         <v>33326.9</v>
@@ -2869,7 +2869,7 @@
         <v>16.7</v>
       </c>
       <c r="T5" t="n">
-        <v>78.5</v>
+        <v>72.90000000000055</v>
       </c>
       <c r="U5" t="n">
         <v>3043.7</v>
@@ -2878,7 +2878,7 @@
         <v>13.2</v>
       </c>
       <c r="W5" t="n">
-        <v>249.2</v>
+        <v>126.3999999999997</v>
       </c>
       <c r="X5" t="n">
         <v>8183.7</v>
@@ -2887,7 +2887,7 @@
         <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>128.1000000000001</v>
+        <v>83.30000000000086</v>
       </c>
       <c r="AA5" t="n">
         <v>2725.1</v>
@@ -2896,7 +2896,7 @@
         <v>11.7</v>
       </c>
       <c r="AC5" t="n">
-        <v>78.5</v>
+        <v>5.30000000000021</v>
       </c>
       <c r="AD5" t="n">
         <v>3004.6</v>
@@ -2905,7 +2905,7 @@
         <v>13.2</v>
       </c>
       <c r="AF5" t="n">
-        <v>8823.799999999988</v>
+        <v>191.400000000081</v>
       </c>
       <c r="AG5" t="n">
         <v>418803.1</v>
@@ -2923,7 +2923,7 @@
         <v>19</v>
       </c>
       <c r="AL5" t="n">
-        <v>126.5</v>
+        <v>30.40000000000003</v>
       </c>
       <c r="AM5" t="n">
         <v>473.7</v>
@@ -2932,7 +2932,7 @@
         <v>0.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>190.2</v>
+        <v>184.2</v>
       </c>
       <c r="AP5" t="n">
         <v>6052</v>
@@ -2941,7 +2941,7 @@
         <v>11.5</v>
       </c>
       <c r="AR5" t="n">
-        <v>366.1000000000013</v>
+        <v>162.700000000003</v>
       </c>
       <c r="AS5" t="n">
         <v>22183.4</v>
@@ -2950,7 +2950,7 @@
         <v>17.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>87.20000000000022</v>
+        <v>39.20000000000022</v>
       </c>
       <c r="AV5" t="n">
         <v>2220.4</v>
@@ -2959,7 +2959,7 @@
         <v>10.9</v>
       </c>
       <c r="AX5" t="n">
-        <v>97.59999999999991</v>
+        <v>28.7999999999995</v>
       </c>
       <c r="AY5" t="n">
         <v>4999.8</v>
@@ -2968,7 +2968,7 @@
         <v>9.1</v>
       </c>
       <c r="BA5" t="n">
-        <v>193.1999999999998</v>
+        <v>73.59999999999989</v>
       </c>
       <c r="BB5" t="n">
         <v>11660.1</v>
@@ -3004,7 +3004,7 @@
         <v>-1.5</v>
       </c>
       <c r="BM5" t="n">
-        <v>176.5</v>
+        <v>25.70000000000023</v>
       </c>
       <c r="BN5" t="n">
         <v>8952.200000000001</v>
@@ -3031,7 +3031,7 @@
         <v>11</v>
       </c>
       <c r="BV5" t="n">
-        <v>777.1000000000022</v>
+        <v>235.3000000000066</v>
       </c>
       <c r="BW5" t="n">
         <v>26232.1</v>
@@ -3040,7 +3040,7 @@
         <v>11.4</v>
       </c>
       <c r="BY5" t="n">
-        <v>146.7</v>
+        <v>26.29999999999989</v>
       </c>
       <c r="BZ5" t="n">
         <v>5195.2</v>
@@ -3049,7 +3049,7 @@
         <v>6.7</v>
       </c>
       <c r="CB5" t="n">
-        <v>198.7999999999988</v>
+        <v>12.39999999999918</v>
       </c>
       <c r="CC5" t="n">
         <v>13613.6</v>
@@ -3058,7 +3058,7 @@
         <v>34</v>
       </c>
       <c r="CE5" t="n">
-        <v>20.00000000000051</v>
+        <v>2.00000000000051</v>
       </c>
       <c r="CF5" t="n">
         <v>2423.8</v>
@@ -3067,7 +3067,7 @@
         <v>7.2</v>
       </c>
       <c r="CH5" t="n">
-        <v>221.9999999999977</v>
+        <v>65.5999999999953</v>
       </c>
       <c r="CI5" t="n">
         <v>15015</v>
@@ -3076,7 +3076,7 @@
         <v>10</v>
       </c>
       <c r="CK5" t="n">
-        <v>217.4000000000019</v>
+        <v>16.20000000000569</v>
       </c>
       <c r="CL5" t="n">
         <v>8020.5</v>
@@ -3085,7 +3085,7 @@
         <v>7.5</v>
       </c>
       <c r="CN5" t="n">
-        <v>942.3999999999942</v>
+        <v>564.3999999999796</v>
       </c>
       <c r="CO5" t="n">
         <v>35837.4</v>
@@ -3094,7 +3094,7 @@
         <v>13.5</v>
       </c>
       <c r="CQ5" t="n">
-        <v>422.700000000003</v>
+        <v>64.70000000001207</v>
       </c>
       <c r="CR5" t="n">
         <v>17012.1</v>
@@ -3103,7 +3103,7 @@
         <v>12.5</v>
       </c>
       <c r="CT5" t="n">
-        <v>62.69999999999914</v>
+        <v>12.09999999999925</v>
       </c>
       <c r="CU5" t="n">
         <v>5500.3</v>
@@ -3112,7 +3112,7 @@
         <v>12.7</v>
       </c>
       <c r="CW5" t="n">
-        <v>159.5999999999999</v>
+        <v>23.39999999999962</v>
       </c>
       <c r="CX5" t="n">
         <v>5878.2</v>
@@ -3121,7 +3121,7 @@
         <v>9.6</v>
       </c>
       <c r="CZ5" t="n">
-        <v>76.89999999999998</v>
+        <v>15.59999999999997</v>
       </c>
       <c r="DA5" t="n">
         <v>345.9</v>
@@ -3130,7 +3130,7 @@
         <v>9.5</v>
       </c>
       <c r="DC5" t="n">
-        <v>408.5</v>
+        <v>177.7000000000044</v>
       </c>
       <c r="DD5" t="n">
         <v>13756.9</v>
@@ -3139,7 +3139,7 @@
         <v>11.6</v>
       </c>
       <c r="DF5" t="n">
-        <v>290.9999999999991</v>
+        <v>48.19999999999987</v>
       </c>
       <c r="DG5" t="n">
         <v>5455.3</v>
@@ -3148,7 +3148,7 @@
         <v>5.1</v>
       </c>
       <c r="DI5" t="n">
-        <v>454.1999999999998</v>
+        <v>38.10000000000583</v>
       </c>
       <c r="DJ5" t="n">
         <v>21314.9</v>
@@ -3157,7 +3157,7 @@
         <v>12.2</v>
       </c>
       <c r="DL5" t="n">
-        <v>54.5</v>
+        <v>13.89999999999964</v>
       </c>
       <c r="DM5" t="n">
         <v>1739.4</v>
@@ -3166,7 +3166,7 @@
         <v>7.2</v>
       </c>
       <c r="DO5" t="n">
-        <v>175.7</v>
+        <v>22.09999999999979</v>
       </c>
       <c r="DP5" t="n">
         <v>7933.5</v>
@@ -3175,7 +3175,7 @@
         <v>9.9</v>
       </c>
       <c r="DR5" t="n">
-        <v>114.3999999999987</v>
+        <v>10.39999999998778</v>
       </c>
       <c r="DS5" t="n">
         <v>27780</v>
@@ -3184,7 +3184,7 @@
         <v>22.6</v>
       </c>
       <c r="DU5" t="n">
-        <v>50.30000000000035</v>
+        <v>10.20000000000057</v>
       </c>
       <c r="DV5" t="n">
         <v>2186.3</v>
@@ -3326,7 +3326,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2553.100000000002</v>
+        <v>2111.800000000013</v>
       </c>
       <c r="C6" t="n">
         <v>16223.9</v>
@@ -3335,7 +3335,7 @@
         <v>12.5</v>
       </c>
       <c r="E6" t="n">
-        <v>615.2000000000003</v>
+        <v>426.5999999999958</v>
       </c>
       <c r="F6" t="n">
         <v>3861.4</v>
@@ -3344,7 +3344,7 @@
         <v>15</v>
       </c>
       <c r="H6" t="n">
-        <v>14.30000000000001</v>
+        <v>4.30000000000001</v>
       </c>
       <c r="I6" t="n">
         <v>1082</v>
@@ -3353,7 +3353,7 @@
         <v>10.6</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3999999999999981</v>
+        <v>0.09999999999999537</v>
       </c>
       <c r="L6" t="n">
         <v>13.6</v>
@@ -3362,7 +3362,7 @@
         <v>61.9</v>
       </c>
       <c r="N6" t="n">
-        <v>5020.299999999999</v>
+        <v>3785.900000000009</v>
       </c>
       <c r="O6" t="n">
         <v>30191.8</v>
@@ -3371,7 +3371,7 @@
         <v>9.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>6270.5</v>
+        <v>5338.400000000001</v>
       </c>
       <c r="R6" t="n">
         <v>40892.4</v>
@@ -3380,7 +3380,7 @@
         <v>16.2</v>
       </c>
       <c r="T6" t="n">
-        <v>630</v>
+        <v>324.3999999999992</v>
       </c>
       <c r="U6" t="n">
         <v>3834.6</v>
@@ -3389,7 +3389,7 @@
         <v>14.1</v>
       </c>
       <c r="W6" t="n">
-        <v>1640.9</v>
+        <v>828.3000000000004</v>
       </c>
       <c r="X6" t="n">
         <v>10218.2</v>
@@ -3398,7 +3398,7 @@
         <v>11.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>591.0999999999999</v>
+        <v>145.8999999999983</v>
       </c>
       <c r="AA6" t="n">
         <v>3447.1</v>
@@ -3407,7 +3407,7 @@
         <v>11.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>614.4000000000001</v>
+        <v>410.1999999999998</v>
       </c>
       <c r="AD6" t="n">
         <v>3761.6</v>
@@ -3416,7 +3416,7 @@
         <v>13.6</v>
       </c>
       <c r="AF6" t="n">
-        <v>81792.29999999999</v>
+        <v>59445.6999999999</v>
       </c>
       <c r="AG6" t="n">
         <v>519592.8</v>
@@ -3434,7 +3434,7 @@
         <v>19.2</v>
       </c>
       <c r="AL6" t="n">
-        <v>116.1</v>
+        <v>24.8999999999999</v>
       </c>
       <c r="AM6" t="n">
         <v>719.9</v>
@@ -3443,7 +3443,7 @@
         <v>3.8</v>
       </c>
       <c r="AO6" t="n">
-        <v>1202.2</v>
+        <v>450.3999999999999</v>
       </c>
       <c r="AP6" t="n">
         <v>7571.9</v>
@@ -3452,7 +3452,7 @@
         <v>12</v>
       </c>
       <c r="AR6" t="n">
-        <v>4151</v>
+        <v>3296.79999999999</v>
       </c>
       <c r="AS6" t="n">
         <v>27614</v>
@@ -3461,7 +3461,7 @@
         <v>17.5</v>
       </c>
       <c r="AU6" t="n">
-        <v>499.8999999999996</v>
+        <v>223.0999999999988</v>
       </c>
       <c r="AV6" t="n">
         <v>2780.8</v>
@@ -3470,7 +3470,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AX6" t="n">
-        <v>1113.7</v>
+        <v>929.7000000000015</v>
       </c>
       <c r="AY6" t="n">
         <v>6301.9</v>
@@ -3479,7 +3479,7 @@
         <v>10.1</v>
       </c>
       <c r="BA6" t="n">
-        <v>2400.1</v>
+        <v>1986.1</v>
       </c>
       <c r="BB6" t="n">
         <v>14498.1</v>
@@ -3488,7 +3488,7 @@
         <v>11.2</v>
       </c>
       <c r="BD6" t="n">
-        <v>136.4000000000001</v>
+        <v>69.60000000000007</v>
       </c>
       <c r="BE6" t="n">
         <v>848.6</v>
@@ -3497,7 +3497,7 @@
         <v>10.3</v>
       </c>
       <c r="BG6" t="n">
-        <v>5136.100000000002</v>
+        <v>3367.299999999998</v>
       </c>
       <c r="BH6" t="n">
         <v>35603</v>
@@ -3506,7 +3506,7 @@
         <v>12.5</v>
       </c>
       <c r="BJ6" t="n">
-        <v>290.5999999999999</v>
+        <v>28.00000000000051</v>
       </c>
       <c r="BK6" t="n">
         <v>1723.2</v>
@@ -3515,7 +3515,7 @@
         <v>-4.7</v>
       </c>
       <c r="BM6" t="n">
-        <v>1622.5</v>
+        <v>1293.5</v>
       </c>
       <c r="BN6" t="n">
         <v>10915.5</v>
@@ -3524,7 +3524,7 @@
         <v>25.1</v>
       </c>
       <c r="BP6" t="n">
-        <v>388.2000000000003</v>
+        <v>207.4000000000003</v>
       </c>
       <c r="BQ6" t="n">
         <v>2991.8</v>
@@ -3533,7 +3533,7 @@
         <v>15.1</v>
       </c>
       <c r="BS6" t="n">
-        <v>312.2000000000039</v>
+        <v>42.70000000000482</v>
       </c>
       <c r="BT6" t="n">
         <v>24724.3</v>
@@ -3542,7 +3542,7 @@
         <v>11.4</v>
       </c>
       <c r="BV6" t="n">
-        <v>5105.599999999999</v>
+        <v>3351.699999999979</v>
       </c>
       <c r="BW6" t="n">
         <v>33176.5</v>
@@ -3551,7 +3551,7 @@
         <v>12.2</v>
       </c>
       <c r="BY6" t="n">
-        <v>1134.3</v>
+        <v>848.5000000000002</v>
       </c>
       <c r="BZ6" t="n">
         <v>6516.6</v>
@@ -3560,7 +3560,7 @@
         <v>6.9</v>
       </c>
       <c r="CB6" t="n">
-        <v>2216.5</v>
+        <v>1887.300000000004</v>
       </c>
       <c r="CC6" t="n">
         <v>16529.1</v>
@@ -3569,7 +3569,7 @@
         <v>31.9</v>
       </c>
       <c r="CE6" t="n">
-        <v>452.5999999999999</v>
+        <v>399.5999999999979</v>
       </c>
       <c r="CF6" t="n">
         <v>2931.2</v>
@@ -3578,7 +3578,7 @@
         <v>6.5</v>
       </c>
       <c r="CH6" t="n">
-        <v>3125.200000000001</v>
+        <v>2706.400000000018</v>
       </c>
       <c r="CI6" t="n">
         <v>18591.3</v>
@@ -3587,7 +3587,7 @@
         <v>9.9</v>
       </c>
       <c r="CK6" t="n">
-        <v>1746.699999999999</v>
+        <v>1178.899999999985</v>
       </c>
       <c r="CL6" t="n">
         <v>9998.5</v>
@@ -3596,7 +3596,7 @@
         <v>7.7</v>
       </c>
       <c r="CN6" t="n">
-        <v>6859.099999999999</v>
+        <v>3656.500000000045</v>
       </c>
       <c r="CO6" t="n">
         <v>44624.1</v>
@@ -3605,7 +3605,7 @@
         <v>13.8</v>
       </c>
       <c r="CQ6" t="n">
-        <v>3412.699999999997</v>
+        <v>2258.899999999971</v>
       </c>
       <c r="CR6" t="n">
         <v>21287.8</v>
@@ -3614,7 +3614,7 @@
         <v>12.8</v>
       </c>
       <c r="CT6" t="n">
-        <v>1020</v>
+        <v>895.7000000000032</v>
       </c>
       <c r="CU6" t="n">
         <v>6768.4</v>
@@ -3623,7 +3623,7 @@
         <v>13.2</v>
       </c>
       <c r="CW6" t="n">
-        <v>1152.400000000001</v>
+        <v>786.4000000000019</v>
       </c>
       <c r="CX6" t="n">
         <v>7328.1</v>
@@ -3632,7 +3632,7 @@
         <v>10.5</v>
       </c>
       <c r="CZ6" t="n">
-        <v>71.60000000000002</v>
+        <v>24.80000000000012</v>
       </c>
       <c r="DA6" t="n">
         <v>458.2</v>
@@ -3641,7 +3641,7 @@
         <v>0.9</v>
       </c>
       <c r="DC6" t="n">
-        <v>2881.399999999998</v>
+        <v>1593.599999999992</v>
       </c>
       <c r="DD6" t="n">
         <v>17333.4</v>
@@ -3650,7 +3650,7 @@
         <v>12.1</v>
       </c>
       <c r="DF6" t="n">
-        <v>1116.1</v>
+        <v>316.3000000000023</v>
       </c>
       <c r="DG6" t="n">
         <v>6981.5</v>
@@ -3659,7 +3659,7 @@
         <v>5.8</v>
       </c>
       <c r="DI6" t="n">
-        <v>4561.100000000002</v>
+        <v>3675.899999999992</v>
       </c>
       <c r="DJ6" t="n">
         <v>26769.9</v>
@@ -3668,7 +3668,7 @@
         <v>12.5</v>
       </c>
       <c r="DL6" t="n">
-        <v>384.5</v>
+        <v>268.0000000000009</v>
       </c>
       <c r="DM6" t="n">
         <v>2205.9</v>
@@ -3677,7 +3677,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="DO6" t="n">
-        <v>1567</v>
+        <v>1171.4</v>
       </c>
       <c r="DP6" t="n">
         <v>9802.4</v>
@@ -3686,7 +3686,7 @@
         <v>10.1</v>
       </c>
       <c r="DR6" t="n">
-        <v>4847.400000000001</v>
+        <v>4545.800000000022</v>
       </c>
       <c r="DS6" t="n">
         <v>33845.6</v>
@@ -3695,7 +3695,7 @@
         <v>22.4</v>
       </c>
       <c r="DU6" t="n">
-        <v>446.5999999999999</v>
+        <v>324.8999999999982</v>
       </c>
       <c r="DV6" t="n">
         <v>2734.8</v>
@@ -3855,7 +3855,7 @@
         <v>14.9</v>
       </c>
       <c r="H7" t="n">
-        <v>172</v>
+        <v>129.8</v>
       </c>
       <c r="I7" t="n">
         <v>1264</v>
@@ -3864,7 +3864,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.500000000000002</v>
+        <v>8.534839501805891e-15</v>
       </c>
       <c r="L7" t="n">
         <v>16.8</v>
@@ -3882,7 +3882,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="Q7" t="n">
-        <v>6141.199999999997</v>
+        <v>291.0999999999976</v>
       </c>
       <c r="R7" t="n">
         <v>47709.2</v>
@@ -3891,7 +3891,7 @@
         <v>15.1</v>
       </c>
       <c r="T7" t="n">
-        <v>585.4000000000001</v>
+        <v>33.90000000000009</v>
       </c>
       <c r="U7" t="n">
         <v>4546.1</v>
@@ -3900,7 +3900,7 @@
         <v>13.9</v>
       </c>
       <c r="W7" t="n">
-        <v>1627</v>
+        <v>235.3</v>
       </c>
       <c r="X7" t="n">
         <v>11956.3</v>
@@ -3909,7 +3909,7 @@
         <v>10.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>579.3999999999996</v>
+        <v>116.3999999999999</v>
       </c>
       <c r="AA7" t="n">
         <v>4092.6</v>
@@ -3936,7 +3936,7 @@
         <v>13.2</v>
       </c>
       <c r="AI7" t="n">
-        <v>316.7000000000003</v>
+        <v>300.3000000000007</v>
       </c>
       <c r="AJ7" t="n">
         <v>2239.9</v>
@@ -3945,7 +3945,7 @@
         <v>17.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>115.7</v>
+        <v>30.00000000000004</v>
       </c>
       <c r="AM7" t="n">
         <v>847.9</v>
@@ -3972,7 +3972,7 @@
         <v>17.2</v>
       </c>
       <c r="AU7" t="n">
-        <v>476</v>
+        <v>63.30000000000058</v>
       </c>
       <c r="AV7" t="n">
         <v>3262</v>
@@ -4017,7 +4017,7 @@
         <v>12.5</v>
       </c>
       <c r="BJ7" t="n">
-        <v>260.7000000000003</v>
+        <v>45.39999999999908</v>
       </c>
       <c r="BK7" t="n">
         <v>2025.2</v>
@@ -4044,7 +4044,7 @@
         <v>14.5</v>
       </c>
       <c r="BS7" t="n">
-        <v>203.7999999999965</v>
+        <v>75.69999999998208</v>
       </c>
       <c r="BT7" t="n">
         <v>29436.6</v>
@@ -4062,7 +4062,7 @@
         <v>12.3</v>
       </c>
       <c r="BY7" t="n">
-        <v>1125.5</v>
+        <v>137.9000000000001</v>
       </c>
       <c r="BZ7" t="n">
         <v>7728.2</v>
@@ -4161,7 +4161,7 @@
         <v>11.5</v>
       </c>
       <c r="DF7" t="n">
-        <v>1092.299999999999</v>
+        <v>267.1999999999982</v>
       </c>
       <c r="DG7" t="n">
         <v>8172</v>
@@ -4348,7 +4348,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2456.5</v>
+        <v>2217.700000000013</v>
       </c>
       <c r="C8" t="n">
         <v>21742.6</v>
@@ -4375,7 +4375,7 @@
         <v>8.4</v>
       </c>
       <c r="K8" t="n">
-        <v>1.799999999999999</v>
+        <v>0.9999999999999851</v>
       </c>
       <c r="L8" t="n">
         <v>20.3</v>
@@ -4393,7 +4393,7 @@
         <v>7.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>5475.5</v>
+        <v>4893.300000000005</v>
       </c>
       <c r="R8" t="n">
         <v>54278</v>
@@ -4411,7 +4411,7 @@
         <v>14.5</v>
       </c>
       <c r="W8" t="n">
-        <v>1357.200000000001</v>
+        <v>886.600000000001</v>
       </c>
       <c r="X8" t="n">
         <v>13727.4</v>
@@ -4429,7 +4429,7 @@
         <v>10.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>15.99999999999955</v>
+        <v>0.4999999999995506</v>
       </c>
       <c r="AD8" t="n">
         <v>5106.4</v>
@@ -4438,7 +4438,7 @@
         <v>12.1</v>
       </c>
       <c r="AF8" t="n">
-        <v>79882</v>
+        <v>71599.99999999977</v>
       </c>
       <c r="AG8" t="n">
         <v>700950.2</v>
@@ -4474,7 +4474,7 @@
         <v>11.2</v>
       </c>
       <c r="AR8" t="n">
-        <v>3495.799999999999</v>
+        <v>3152.200000000007</v>
       </c>
       <c r="AS8" t="n">
         <v>37205.9</v>
@@ -4483,7 +4483,7 @@
         <v>16.7</v>
       </c>
       <c r="AU8" t="n">
-        <v>331.1000000000004</v>
+        <v>204.4999999999992</v>
       </c>
       <c r="AV8" t="n">
         <v>3721.3</v>
@@ -4492,7 +4492,7 @@
         <v>6</v>
       </c>
       <c r="AX8" t="n">
-        <v>1128.1</v>
+        <v>1040.099999999996</v>
       </c>
       <c r="AY8" t="n">
         <v>8604.200000000001</v>
@@ -4501,7 +4501,7 @@
         <v>7.9</v>
       </c>
       <c r="BA8" t="n">
-        <v>2062.799999999999</v>
+        <v>1889.199999999999</v>
       </c>
       <c r="BB8" t="n">
         <v>19567.7</v>
@@ -4510,7 +4510,7 @@
         <v>9.4</v>
       </c>
       <c r="BD8" t="n">
-        <v>4.699999999999989</v>
+        <v>0.6000000000000796</v>
       </c>
       <c r="BE8" t="n">
         <v>1159.5</v>
@@ -4519,7 +4519,7 @@
         <v>10.8</v>
       </c>
       <c r="BG8" t="n">
-        <v>484.5999999999995</v>
+        <v>124.800000000004</v>
       </c>
       <c r="BH8" t="n">
         <v>47327</v>
@@ -4537,7 +4537,7 @@
         <v>-2.1</v>
       </c>
       <c r="BM8" t="n">
-        <v>1587.4</v>
+        <v>1552.599999999996</v>
       </c>
       <c r="BN8" t="n">
         <v>14582.7</v>
@@ -4546,7 +4546,7 @@
         <v>21.7</v>
       </c>
       <c r="BP8" t="n">
-        <v>283.9000000000001</v>
+        <v>179.5000000000021</v>
       </c>
       <c r="BQ8" t="n">
         <v>3882</v>
@@ -4555,7 +4555,7 @@
         <v>14.1</v>
       </c>
       <c r="BS8" t="n">
-        <v>4137.5</v>
+        <v>3450.400000000027</v>
       </c>
       <c r="BT8" t="n">
         <v>34313.6</v>
@@ -4564,7 +4564,7 @@
         <v>11.5</v>
       </c>
       <c r="BV8" t="n">
-        <v>5044.899999999994</v>
+        <v>4404.899999999969</v>
       </c>
       <c r="BW8" t="n">
         <v>44874.7</v>
@@ -4582,7 +4582,7 @@
         <v>6.3</v>
       </c>
       <c r="CB8" t="n">
-        <v>1921.5</v>
+        <v>1361.1</v>
       </c>
       <c r="CC8" t="n">
         <v>22154</v>
@@ -4591,7 +4591,7 @@
         <v>29.5</v>
       </c>
       <c r="CE8" t="n">
-        <v>8.900000000000091</v>
+        <v>3.300000000000182</v>
       </c>
       <c r="CF8" t="n">
         <v>3881.3</v>
@@ -4600,7 +4600,7 @@
         <v>5.9</v>
       </c>
       <c r="CH8" t="n">
-        <v>3007.399999999998</v>
+        <v>2965.399999999998</v>
       </c>
       <c r="CI8" t="n">
         <v>25075.2</v>
@@ -4618,7 +4618,7 @@
         <v>6.5</v>
       </c>
       <c r="CN8" t="n">
-        <v>920.6999999999971</v>
+        <v>54.49999999998727</v>
       </c>
       <c r="CO8" t="n">
         <v>60624.2</v>
@@ -4627,7 +4627,7 @@
         <v>13.6</v>
       </c>
       <c r="CQ8" t="n">
-        <v>3414.200000000001</v>
+        <v>3122.999999999989</v>
       </c>
       <c r="CR8" t="n">
         <v>28625.6</v>
@@ -4636,7 +4636,7 @@
         <v>11.1</v>
       </c>
       <c r="CT8" t="n">
-        <v>998.7000000000007</v>
+        <v>882.3000000000011</v>
       </c>
       <c r="CU8" t="n">
         <v>9118.5</v>
@@ -4645,7 +4645,7 @@
         <v>13.3</v>
       </c>
       <c r="CW8" t="n">
-        <v>1191.5</v>
+        <v>988.7000000000041</v>
       </c>
       <c r="CX8" t="n">
         <v>9824.9</v>
@@ -4663,7 +4663,7 @@
         <v>-1.8</v>
       </c>
       <c r="DC8" t="n">
-        <v>2640.100000000002</v>
+        <v>2461.699999999994</v>
       </c>
       <c r="DD8" t="n">
         <v>23484.1</v>
@@ -4672,7 +4672,7 @@
         <v>10.4</v>
       </c>
       <c r="DF8" t="n">
-        <v>992.9000000000015</v>
+        <v>458.500000000005</v>
       </c>
       <c r="DG8" t="n">
         <v>9411.6</v>
@@ -4681,7 +4681,7 @@
         <v>6.9</v>
       </c>
       <c r="DI8" t="n">
-        <v>4410.300000000003</v>
+        <v>3889.10000000002</v>
       </c>
       <c r="DJ8" t="n">
         <v>36652.8</v>
@@ -4690,7 +4690,7 @@
         <v>10.9</v>
       </c>
       <c r="DL8" t="n">
-        <v>361.9000000000001</v>
+        <v>341.9000000000001</v>
       </c>
       <c r="DM8" t="n">
         <v>2960.9</v>
@@ -4699,7 +4699,7 @@
         <v>5.2</v>
       </c>
       <c r="DO8" t="n">
-        <v>1106.200000000001</v>
+        <v>648.200000000001</v>
       </c>
       <c r="DP8" t="n">
         <v>13293.8</v>
@@ -4708,7 +4708,7 @@
         <v>9.4</v>
       </c>
       <c r="DR8" t="n">
-        <v>4270.300000000003</v>
+        <v>3725.900000000019</v>
       </c>
       <c r="DS8" t="n">
         <v>45323.9</v>
@@ -4717,7 +4717,7 @@
         <v>21</v>
       </c>
       <c r="DU8" t="n">
-        <v>449.6999999999998</v>
+        <v>350.0999999999994</v>
       </c>
       <c r="DV8" t="n">
         <v>3712.4</v>
@@ -4868,7 +4868,7 @@
         <v>10.1</v>
       </c>
       <c r="E9" t="n">
-        <v>601.4000000000005</v>
+        <v>585.0000000000009</v>
       </c>
       <c r="F9" t="n">
         <v>5976.2</v>
@@ -4877,7 +4877,7 @@
         <v>13.7</v>
       </c>
       <c r="H9" t="n">
-        <v>131.0999999999999</v>
+        <v>42.29999999999994</v>
       </c>
       <c r="I9" t="n">
         <v>1647.2</v>
@@ -4886,7 +4886,7 @@
         <v>7.8</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>0.2000000000000011</v>
       </c>
       <c r="L9" t="n">
         <v>24.4</v>
@@ -4895,7 +4895,7 @@
         <v>73</v>
       </c>
       <c r="N9" t="n">
-        <v>4806.799999999996</v>
+        <v>4659.199999999994</v>
       </c>
       <c r="O9" t="n">
         <v>46192.4</v>
@@ -4904,7 +4904,7 @@
         <v>7.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>5323.600000000006</v>
+        <v>139.2000000000035</v>
       </c>
       <c r="R9" t="n">
         <v>60537.5</v>
@@ -4922,7 +4922,7 @@
         <v>15.1</v>
       </c>
       <c r="W9" t="n">
-        <v>1322.4</v>
+        <v>200.4999999999991</v>
       </c>
       <c r="X9" t="n">
         <v>15216.5</v>
@@ -4931,7 +4931,7 @@
         <v>10.3</v>
       </c>
       <c r="Z9" t="n">
-        <v>558.1999999999998</v>
+        <v>392.9999999999954</v>
       </c>
       <c r="AA9" t="n">
         <v>5339.9</v>
@@ -4940,7 +4940,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>605.8000000000002</v>
+        <v>588.300000000002</v>
       </c>
       <c r="AD9" t="n">
         <v>5763.9</v>
@@ -4949,7 +4949,7 @@
         <v>10.8</v>
       </c>
       <c r="AF9" t="n">
-        <v>75488</v>
+        <v>1817.500000000175</v>
       </c>
       <c r="AG9" t="n">
         <v>788756.7</v>
@@ -4967,7 +4967,7 @@
         <v>17.9</v>
       </c>
       <c r="AL9" t="n">
-        <v>118</v>
+        <v>46.40000000000002</v>
       </c>
       <c r="AM9" t="n">
         <v>1114.9</v>
@@ -4976,7 +4976,7 @@
         <v>5.3</v>
       </c>
       <c r="AO9" t="n">
-        <v>1139.4</v>
+        <v>893.3999999999962</v>
       </c>
       <c r="AP9" t="n">
         <v>11650.6</v>
@@ -5021,7 +5021,7 @@
         <v>9.5</v>
       </c>
       <c r="BD9" t="n">
-        <v>142.5</v>
+        <v>135.9999999999997</v>
       </c>
       <c r="BE9" t="n">
         <v>1325.2</v>
@@ -5039,7 +5039,7 @@
         <v>12.5</v>
       </c>
       <c r="BJ9" t="n">
-        <v>258.7999999999997</v>
+        <v>139.6000000000009</v>
       </c>
       <c r="BK9" t="n">
         <v>2622.1</v>
@@ -5066,7 +5066,7 @@
         <v>16.3</v>
       </c>
       <c r="BS9" t="n">
-        <v>3946.300000000003</v>
+        <v>12.59999999999991</v>
       </c>
       <c r="BT9" t="n">
         <v>38851</v>
@@ -5084,7 +5084,7 @@
         <v>12.2</v>
       </c>
       <c r="BY9" t="n">
-        <v>1069.299999999999</v>
+        <v>686.4999999999952</v>
       </c>
       <c r="BZ9" t="n">
         <v>10072.7</v>
@@ -5102,7 +5102,7 @@
         <v>29.8</v>
       </c>
       <c r="CE9" t="n">
-        <v>429.9000000000005</v>
+        <v>411.0999999999998</v>
       </c>
       <c r="CF9" t="n">
         <v>4371.2</v>
@@ -5120,7 +5120,7 @@
         <v>7.5</v>
       </c>
       <c r="CK9" t="n">
-        <v>1723.300000000001</v>
+        <v>1667.700000000009</v>
       </c>
       <c r="CL9" t="n">
         <v>15399.3</v>
@@ -5129,7 +5129,7 @@
         <v>5.4</v>
       </c>
       <c r="CN9" t="n">
-        <v>7466.899999999994</v>
+        <v>5949.60000000003</v>
       </c>
       <c r="CO9" t="n">
         <v>69728.5</v>
@@ -5165,7 +5165,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="CZ9" t="n">
-        <v>591</v>
+        <v>586.1999999999998</v>
       </c>
       <c r="DA9" t="n">
         <v>680.5</v>
@@ -5183,7 +5183,7 @@
         <v>9.9</v>
       </c>
       <c r="DF9" t="n">
-        <v>985</v>
+        <v>259.2999999999968</v>
       </c>
       <c r="DG9" t="n">
         <v>10459.3</v>
@@ -5397,7 +5397,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9000000000000021</v>
+        <v>0.2999999999999989</v>
       </c>
       <c r="L10" t="n">
         <v>28.5</v>
@@ -5424,7 +5424,7 @@
         <v>14.2</v>
       </c>
       <c r="T10" t="n">
-        <v>248.8000000000002</v>
+        <v>217.1999999999979</v>
       </c>
       <c r="U10" t="n">
         <v>6625.6</v>
@@ -5442,7 +5442,7 @@
         <v>11.4</v>
       </c>
       <c r="Z10" t="n">
-        <v>530.8000000000002</v>
+        <v>13.90000000000146</v>
       </c>
       <c r="AA10" t="n">
         <v>5909.2</v>
@@ -5478,7 +5478,7 @@
         <v>16.9</v>
       </c>
       <c r="AL10" t="n">
-        <v>109.5999999999999</v>
+        <v>9.499999999999901</v>
       </c>
       <c r="AM10" t="n">
         <v>1185.1</v>
@@ -5487,7 +5487,7 @@
         <v>0.7</v>
       </c>
       <c r="AO10" t="n">
-        <v>1071.1</v>
+        <v>54.70000000000186</v>
       </c>
       <c r="AP10" t="n">
         <v>12960.6</v>
@@ -5496,7 +5496,7 @@
         <v>10.7</v>
       </c>
       <c r="AR10" t="n">
-        <v>3698.100000000006</v>
+        <v>2548.900000000006</v>
       </c>
       <c r="AS10" t="n">
         <v>45730.3</v>
@@ -5505,7 +5505,7 @@
         <v>16.8</v>
       </c>
       <c r="AU10" t="n">
-        <v>37.80000000000024</v>
+        <v>8.20000000000192</v>
       </c>
       <c r="AV10" t="n">
         <v>4483.6</v>
@@ -5523,7 +5523,7 @@
         <v>4</v>
       </c>
       <c r="BA10" t="n">
-        <v>2056.400000000001</v>
+        <v>2054.400000000001</v>
       </c>
       <c r="BB10" t="n">
         <v>24096.6</v>
@@ -5541,7 +5541,7 @@
         <v>11.2</v>
       </c>
       <c r="BG10" t="n">
-        <v>5860.5</v>
+        <v>5534.899999999998</v>
       </c>
       <c r="BH10" t="n">
         <v>60387.1</v>
@@ -5568,7 +5568,7 @@
         <v>18.9</v>
       </c>
       <c r="BP10" t="n">
-        <v>80.90000000000009</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="BQ10" t="n">
         <v>4637.3</v>
@@ -5577,7 +5577,7 @@
         <v>16</v>
       </c>
       <c r="BS10" t="n">
-        <v>388.1999999999971</v>
+        <v>362.9999999999973</v>
       </c>
       <c r="BT10" t="n">
         <v>43260.1</v>
@@ -5586,7 +5586,7 @@
         <v>11.3</v>
       </c>
       <c r="BV10" t="n">
-        <v>3433.400000000001</v>
+        <v>3360.999999999977</v>
       </c>
       <c r="BW10" t="n">
         <v>56277.9</v>
@@ -5595,7 +5595,7 @@
         <v>12.5</v>
       </c>
       <c r="BY10" t="n">
-        <v>898</v>
+        <v>20.10000000000286</v>
       </c>
       <c r="BZ10" t="n">
         <v>11219.1</v>
@@ -5622,7 +5622,7 @@
         <v>6</v>
       </c>
       <c r="CH10" t="n">
-        <v>2027.799999999999</v>
+        <v>1675.799999999987</v>
       </c>
       <c r="CI10" t="n">
         <v>31240.2</v>
@@ -5640,7 +5640,7 @@
         <v>4.7</v>
       </c>
       <c r="CN10" t="n">
-        <v>6670.600000000006</v>
+        <v>124.4000000000087</v>
       </c>
       <c r="CO10" t="n">
         <v>77802.89999999999</v>
@@ -5658,7 +5658,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="CT10" t="n">
-        <v>775.7000000000007</v>
+        <v>666.1000000000076</v>
       </c>
       <c r="CU10" t="n">
         <v>11441.4</v>
@@ -5703,7 +5703,7 @@
         <v>7.6</v>
       </c>
       <c r="DI10" t="n">
-        <v>3652.599999999999</v>
+        <v>3385.400000000011</v>
       </c>
       <c r="DJ10" t="n">
         <v>46171.2</v>
@@ -5721,7 +5721,7 @@
         <v>1.2</v>
       </c>
       <c r="DO10" t="n">
-        <v>1293.800000000001</v>
+        <v>132.5000000000068</v>
       </c>
       <c r="DP10" t="n">
         <v>16159.2</v>
@@ -5899,7 +5899,7 @@
         <v>11.4</v>
       </c>
       <c r="H11" t="n">
-        <v>113</v>
+        <v>63.79999999999926</v>
       </c>
       <c r="I11" t="n">
         <v>1941.2</v>
@@ -5908,7 +5908,7 @@
         <v>7.7</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9999999999999969</v>
+        <v>0.09999999999999476</v>
       </c>
       <c r="L11" t="n">
         <v>29.8</v>
@@ -5953,7 +5953,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Z11" t="n">
-        <v>516</v>
+        <v>488.199999999997</v>
       </c>
       <c r="AA11" t="n">
         <v>6403.4</v>
@@ -5962,7 +5962,7 @@
         <v>7.2</v>
       </c>
       <c r="AC11" t="n">
-        <v>578</v>
+        <v>539.5999999999985</v>
       </c>
       <c r="AD11" t="n">
         <v>7063.9</v>
@@ -5980,7 +5980,7 @@
         <v>11.1</v>
       </c>
       <c r="AI11" t="n">
-        <v>160.5</v>
+        <v>76.10000000000038</v>
       </c>
       <c r="AJ11" t="n">
         <v>3528</v>
@@ -5989,7 +5989,7 @@
         <v>17</v>
       </c>
       <c r="AL11" t="n">
-        <v>149.5000000000002</v>
+        <v>20.9000000000005</v>
       </c>
       <c r="AM11" t="n">
         <v>1265.8</v>
@@ -5998,7 +5998,7 @@
         <v>-1.6</v>
       </c>
       <c r="AO11" t="n">
-        <v>719.0999999999985</v>
+        <v>664.3999999999967</v>
       </c>
       <c r="AP11" t="n">
         <v>13850.9</v>
@@ -6007,7 +6007,7 @@
         <v>8.4</v>
       </c>
       <c r="AR11" t="n">
-        <v>2848.299999999996</v>
+        <v>12.0999999999899</v>
       </c>
       <c r="AS11" t="n">
         <v>49484.7</v>
@@ -6016,7 +6016,7 @@
         <v>15.4</v>
       </c>
       <c r="AU11" t="n">
-        <v>4177.1</v>
+        <v>4099.899999999996</v>
       </c>
       <c r="AV11" t="n">
         <v>4450</v>
@@ -6025,7 +6025,7 @@
         <v>-2.6</v>
       </c>
       <c r="AX11" t="n">
-        <v>847.5</v>
+        <v>740.3000000000043</v>
       </c>
       <c r="AY11" t="n">
         <v>11429.1</v>
@@ -6043,7 +6043,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="BD11" t="n">
-        <v>35.69999999999999</v>
+        <v>1.79999999999996</v>
       </c>
       <c r="BE11" t="n">
         <v>1655.2</v>
@@ -6070,7 +6070,7 @@
         <v>-1.1</v>
       </c>
       <c r="BM11" t="n">
-        <v>1543.099999999999</v>
+        <v>263.2999999999993</v>
       </c>
       <c r="BN11" t="n">
         <v>18996.4</v>
@@ -6079,7 +6079,7 @@
         <v>16.3</v>
       </c>
       <c r="BP11" t="n">
-        <v>211.3999999999996</v>
+        <v>30.79999999999876</v>
       </c>
       <c r="BQ11" t="n">
         <v>5073.4</v>
@@ -6088,7 +6088,7 @@
         <v>15.5</v>
       </c>
       <c r="BS11" t="n">
-        <v>667</v>
+        <v>278.8000000000029</v>
       </c>
       <c r="BT11" t="n">
         <v>47771.1</v>
@@ -6106,7 +6106,7 @@
         <v>12.4</v>
       </c>
       <c r="BY11" t="n">
-        <v>821.7000000000007</v>
+        <v>801.5999999999979</v>
       </c>
       <c r="BZ11" t="n">
         <v>11962.7</v>
@@ -6115,7 +6115,7 @@
         <v>3.6</v>
       </c>
       <c r="CB11" t="n">
-        <v>352.800000000002</v>
+        <v>253.2000000000108</v>
       </c>
       <c r="CC11" t="n">
         <v>30417.1</v>
@@ -6124,7 +6124,7 @@
         <v>29.8</v>
       </c>
       <c r="CE11" t="n">
-        <v>125.1000000000013</v>
+        <v>20.40000000000494</v>
       </c>
       <c r="CF11" t="n">
         <v>5312.7</v>
@@ -6133,7 +6133,7 @@
         <v>5.7</v>
       </c>
       <c r="CH11" t="n">
-        <v>1928.399999999998</v>
+        <v>76.60000000000514</v>
       </c>
       <c r="CI11" t="n">
         <v>32778.4</v>
@@ -6151,7 +6151,7 @@
         <v>1.5</v>
       </c>
       <c r="CN11" t="n">
-        <v>747.8999999999942</v>
+        <v>499.0999999999767</v>
       </c>
       <c r="CO11" t="n">
         <v>85529.7</v>
@@ -6196,7 +6196,7 @@
         <v>-0.2</v>
       </c>
       <c r="DC11" t="n">
-        <v>2197.599999999999</v>
+        <v>2110.400000000003</v>
       </c>
       <c r="DD11" t="n">
         <v>30925.8</v>
@@ -6205,7 +6205,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="DF11" t="n">
-        <v>399.8999999999997</v>
+        <v>65.50000000000011</v>
       </c>
       <c r="DG11" t="n">
         <v>11860.7</v>
@@ -6241,7 +6241,7 @@
         <v>8.9</v>
       </c>
       <c r="DR11" t="n">
-        <v>3721.5</v>
+        <v>2988.700000000012</v>
       </c>
       <c r="DS11" t="n">
         <v>58903.9</v>
@@ -6250,7 +6250,7 @@
         <v>20</v>
       </c>
       <c r="DU11" t="n">
-        <v>333.8000000000002</v>
+        <v>55.4000000000016</v>
       </c>
       <c r="DV11" t="n">
         <v>4591.3</v>
